--- a/Excel File/1102bulls.xlsx
+++ b/Excel File/1102bulls.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="5708"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="5708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$L$1:$U$31</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -159,12 +163,33 @@
   </si>
   <si>
     <t>James Young</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Michael Carter-Williams</t>
+  </si>
+  <si>
+    <t>Doug McDermott</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>Bulls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +240,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -244,12 +275,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -291,6 +337,14 @@
     <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -574,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1940,4 +1994,2801 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q45" sqref="J34:Q45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="17">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="17">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="17">
+        <v>8</v>
+      </c>
+      <c r="P2" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>1</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17">
+        <v>2</v>
+      </c>
+      <c r="T2" s="17">
+        <v>1</v>
+      </c>
+      <c r="U2" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="17">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="17">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17">
+        <v>4</v>
+      </c>
+      <c r="G3" s="17">
+        <v>2</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="17">
+        <v>5</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>3</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
+        <v>0</v>
+      </c>
+      <c r="U3" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="17">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>4</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="17">
+        <v>8</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>2</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="17">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>2</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="17">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17">
+        <v>5</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="17">
+        <v>8</v>
+      </c>
+      <c r="P6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>2</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <v>1</v>
+      </c>
+      <c r="U6" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="17">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="17">
+        <v>7</v>
+      </c>
+      <c r="F7" s="17">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>2</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="17">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="17">
+        <v>9</v>
+      </c>
+      <c r="P8" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <v>1</v>
+      </c>
+      <c r="U8" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="17">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="17">
+        <v>8</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
+        <v>1</v>
+      </c>
+      <c r="T9" s="17">
+        <v>2</v>
+      </c>
+      <c r="U9" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="17">
+        <v>10</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>2</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <v>2</v>
+      </c>
+      <c r="U10" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="17">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>3</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="17">
+        <v>9</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>3</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <v>3</v>
+      </c>
+      <c r="U11" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="17">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="17">
+        <v>10</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>2</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+      <c r="S12" s="17">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>2</v>
+      </c>
+      <c r="U12" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="17">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>3</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="17">
+        <v>9</v>
+      </c>
+      <c r="P13" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>3</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0</v>
+      </c>
+      <c r="S13" s="17">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <v>3</v>
+      </c>
+      <c r="U13" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="17">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="17">
+        <v>6</v>
+      </c>
+      <c r="P14" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>3</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <v>1</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="17">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="17">
+        <v>3</v>
+      </c>
+      <c r="F15" s="17">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17">
+        <v>3</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>3</v>
+      </c>
+      <c r="K15" s="17">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="17">
+        <v>7</v>
+      </c>
+      <c r="P15" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>3</v>
+      </c>
+      <c r="R15" s="17">
+        <v>1</v>
+      </c>
+      <c r="S15" s="17">
+        <v>1</v>
+      </c>
+      <c r="T15" s="17">
+        <v>2</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" s="17">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17">
+        <v>4</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="17">
+        <v>2</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5</v>
+      </c>
+      <c r="K16" s="17">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="17">
+        <v>6</v>
+      </c>
+      <c r="P16" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>1</v>
+      </c>
+      <c r="R16" s="17">
+        <v>2</v>
+      </c>
+      <c r="S16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
+        <v>2</v>
+      </c>
+      <c r="U16" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="17">
+        <v>2</v>
+      </c>
+      <c r="P17" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" s="17">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3</v>
+      </c>
+      <c r="F18" s="17">
+        <v>4</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>5</v>
+      </c>
+      <c r="K18" s="17">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="17">
+        <v>6</v>
+      </c>
+      <c r="P18" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>3</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="S18" s="17">
+        <v>0</v>
+      </c>
+      <c r="T18" s="17">
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" s="17">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="17">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17">
+        <v>4</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="17">
+        <v>6</v>
+      </c>
+      <c r="P19" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>1</v>
+      </c>
+      <c r="R19" s="17">
+        <v>2</v>
+      </c>
+      <c r="S19" s="17">
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
+        <v>2</v>
+      </c>
+      <c r="U19" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="17">
+        <v>2</v>
+      </c>
+      <c r="P20" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1</v>
+      </c>
+      <c r="S20" s="17">
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" s="17">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="17">
+        <v>3</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="17">
+        <v>6</v>
+      </c>
+      <c r="P21" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>3</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <v>0</v>
+      </c>
+      <c r="T21" s="17">
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" s="17">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="17">
+        <v>6</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <v>4</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="17">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="17">
+        <v>4</v>
+      </c>
+      <c r="P22" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>2</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <v>1</v>
+      </c>
+      <c r="T22" s="17">
+        <v>1</v>
+      </c>
+      <c r="U22" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <v>3</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1</v>
+      </c>
+      <c r="K23" s="17">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="17">
+        <v>2</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>1</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0</v>
+      </c>
+      <c r="T23" s="17">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" s="17">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="17">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" s="17">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="17">
+        <v>6</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17">
+        <v>4</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="17">
+        <v>7</v>
+      </c>
+      <c r="P25" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>2</v>
+      </c>
+      <c r="R25" s="17">
+        <v>2</v>
+      </c>
+      <c r="S25" s="17">
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" s="17">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17">
+        <v>3</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="17">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1</v>
+      </c>
+      <c r="P26" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>2</v>
+      </c>
+      <c r="R26" s="17">
+        <v>0</v>
+      </c>
+      <c r="S26" s="17">
+        <v>0</v>
+      </c>
+      <c r="T26" s="17">
+        <v>1</v>
+      </c>
+      <c r="U26" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" s="17">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="17">
+        <v>7</v>
+      </c>
+      <c r="P27" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>2</v>
+      </c>
+      <c r="R27" s="17">
+        <v>2</v>
+      </c>
+      <c r="S27" s="17">
+        <v>0</v>
+      </c>
+      <c r="T27" s="17">
+        <v>0</v>
+      </c>
+      <c r="U27" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" s="17">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="17">
+        <v>4</v>
+      </c>
+      <c r="F28" s="17">
+        <v>3</v>
+      </c>
+      <c r="G28" s="17">
+        <v>4</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="17">
+        <v>5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="17">
+        <v>1</v>
+      </c>
+      <c r="P28" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>2</v>
+      </c>
+      <c r="R28" s="17">
+        <v>0</v>
+      </c>
+      <c r="S28" s="17">
+        <v>0</v>
+      </c>
+      <c r="T28" s="17">
+        <v>1</v>
+      </c>
+      <c r="U28" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" s="17">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3</v>
+      </c>
+      <c r="F29" s="17">
+        <v>3</v>
+      </c>
+      <c r="G29" s="17">
+        <v>2</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="17">
+        <v>2</v>
+      </c>
+      <c r="P29" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0</v>
+      </c>
+      <c r="R29" s="17">
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A30" s="17">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="17">
+        <v>6</v>
+      </c>
+      <c r="P30" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>4</v>
+      </c>
+      <c r="R30" s="17">
+        <v>0</v>
+      </c>
+      <c r="S30" s="17">
+        <v>1</v>
+      </c>
+      <c r="T30" s="17">
+        <v>3</v>
+      </c>
+      <c r="U30" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" s="17">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="17">
+        <v>6</v>
+      </c>
+      <c r="F31" s="17">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <v>1</v>
+      </c>
+      <c r="J31" s="17">
+        <v>2</v>
+      </c>
+      <c r="K31" s="17">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="17">
+        <v>6</v>
+      </c>
+      <c r="P31" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>4</v>
+      </c>
+      <c r="R31" s="17">
+        <v>0</v>
+      </c>
+      <c r="S31" s="17">
+        <v>1</v>
+      </c>
+      <c r="T31" s="17">
+        <v>3</v>
+      </c>
+      <c r="U31" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" s="17">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="17">
+        <v>6</v>
+      </c>
+      <c r="F32" s="17">
+        <v>5</v>
+      </c>
+      <c r="G32" s="17">
+        <v>2</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="17">
+        <v>2</v>
+      </c>
+      <c r="K32" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <f>SUM(E2:E8)</f>
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:H35" si="0">SUM(F2:F8)</f>
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="18">
+        <f>B35/3</f>
+        <v>11</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" ref="L35:Q35" si="1">C35/3</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="N35" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="18">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="P35" s="18">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q35" s="18">
+        <f t="shared" si="1"/>
+        <v>20.666666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <f>SUM(E9:E14)</f>
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:H36" si="2">SUM(F9:F14)</f>
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="18">
+        <f t="shared" ref="K36:K45" si="3">B36/3</f>
+        <v>3</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" ref="L36:L45" si="4">C36/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M36" s="18">
+        <f t="shared" ref="M36:M45" si="5">D36/3</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N36" s="18">
+        <f t="shared" ref="N36:N45" si="6">E36/3</f>
+        <v>1</v>
+      </c>
+      <c r="O36" s="18">
+        <f t="shared" ref="O36:O45" si="7">F36/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P36" s="18">
+        <f t="shared" ref="P36:P45" si="8">G36/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q36" s="18">
+        <f t="shared" ref="Q36:Q45" si="9">H36/3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <f>SUM(E15:E19)</f>
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:H37" si="10">SUM(F15:F19)</f>
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="18">
+        <f t="shared" si="3"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="4"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N37" s="18">
+        <f t="shared" si="6"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="O37" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="18">
+        <f t="shared" si="8"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="Q37" s="18">
+        <f t="shared" si="9"/>
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <f>SUM(E20:E27)</f>
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:H38" si="11">SUM(F20:F27)</f>
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M38" s="18">
+        <f t="shared" si="5"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="N38" s="18">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O38" s="18">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P38" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="18">
+        <f t="shared" si="9"/>
+        <v>20.333333333333332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <f>SUM(E28:E32)</f>
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:H39" si="12">SUM(F28:F32)</f>
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L39" s="18">
+        <f t="shared" si="4"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="M39" s="18">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N39" s="18">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O39" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="18">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q39" s="18">
+        <f t="shared" si="9"/>
+        <v>17.666666666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <f>SUM(O2:O7)</f>
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:H41" si="13">SUM(P2:P7)</f>
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="18">
+        <f t="shared" si="3"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="L41" s="18">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M41" s="18">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N41" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="18">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P41" s="18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="18">
+        <f t="shared" si="9"/>
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <f>SUM(O8:O13)</f>
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:H42" si="14">SUM(P8:P13)</f>
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="J42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="18">
+        <f t="shared" si="3"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="L42" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="18">
+        <f t="shared" si="5"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="N42" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="18">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P42" s="18">
+        <f t="shared" si="8"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="Q42" s="18">
+        <f t="shared" si="9"/>
+        <v>32.333333333333336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <f>SUM(O14:O21)</f>
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:H43" si="15">SUM(P14:P21)</f>
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="18">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="L43" s="18">
+        <f t="shared" si="4"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="M43" s="18">
+        <f t="shared" si="5"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="N43" s="18">
+        <f t="shared" si="6"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="O43" s="18">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P43" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q43" s="18">
+        <f t="shared" si="9"/>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <f>SUM(O22:O28)</f>
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:H44" si="16">SUM(P22:P28)</f>
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="16"/>
+        <v>98</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" si="3"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="L44" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M44" s="18">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N44" s="18">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O44" s="18">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P44" s="18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="18">
+        <f t="shared" si="9"/>
+        <v>32.666666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <f>SUM(O29:O31)</f>
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:H45" si="17">SUM(P29:P31)</f>
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="17"/>
+        <v>54</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="18">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="4"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="M45" s="18">
+        <f t="shared" si="5"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N45" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="18">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P45" s="18">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q45" s="18">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="L1:U31">
+    <sortState ref="L2:AA31">
+      <sortCondition ref="N1:N31"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>